--- a/biology/Zoologie/Harmonicon/Harmonicon.xlsx
+++ b/biology/Zoologie/Harmonicon/Harmonicon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harmonicon est un genre d'araignées mygalomorphes de la famille des Dipluridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harmonicon est un genre d'araignées mygalomorphes de la famille des Dipluridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Guyane et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Guyane et au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 15.0, 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 15.0, 2014) :
 Harmonicon audeae Maréchal &amp; Marty, 1998
 Harmonicon cerberus Pedroso &amp; Baptista, 2014
 Harmonicon oiapoqueae Drolshagen &amp; Bäckstam, 2011
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>F. O. Pickard-Cambridge, 1896 : On the Theraphosidae of the lower Amazons: being an account of the new genera and species of this group of spiders discovered during the expedition of the steamship "Faraday" up the river Amazons. Proceedings of the Zoological Society of London, vol. 1896, p. 716-766 (texte intégral).</t>
         </is>
